--- a/Turma Intensivo - 439 - Noite Julho 2017/Aula 9/Exerc-Indice com desloc icms Noite.xlsx
+++ b/Turma Intensivo - 439 - Noite Julho 2017/Aula 9/Exerc-Indice com desloc icms Noite.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio\Desktop\TeachX.git\trunk\Turma Intensivo - Manhã Julho 2017\Aula 9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio\Desktop\TeachX.git\trunk\Turma Intensivo - 439 - Noite Julho 2017\Aula 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18960" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tb_dados_icms" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="104">
   <si>
     <t>N°</t>
   </si>
@@ -329,6 +329,12 @@
   </si>
   <si>
     <t>Cidade XXX - 53</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>sp</t>
   </si>
 </sst>
 </file>
@@ -338,13 +344,19 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -580,41 +592,41 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -635,34 +647,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" activeCellId="2" sqref="E1 A7:XFD7 B1:AC1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R1" activeCellId="1" sqref="A25:XFD25 B1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,70 +1108,70 @@
       <c r="AE1" s="18"/>
     </row>
     <row r="2" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="27"/>
-      <c r="AE2" s="31" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="28"/>
+      <c r="AE2" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="30"/>
-      <c r="AE3" s="32"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="31"/>
+      <c r="AE3" s="33"/>
     </row>
     <row r="4" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3684,9 +3699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3740,22 +3755,29 @@
       <c r="B3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="12">
         <v>13991.12</v>
       </c>
       <c r="H3" s="12">
         <f t="shared" ref="H3:H33" si="0">IFERROR(G3*I3,"Calcular...")</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="13"/>
+        <v>1678.9344000000001</v>
+      </c>
+      <c r="I3" s="13">
+        <f>INDEX(tb_dados_icms!$C$6:$AC$32,MATCH(D3,tb_dados_icms!$B$6:$B$32,0),MATCH(F3,tb_dados_icms!$C$5:$AC$5,0))</f>
+        <v>0.12</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
@@ -3764,22 +3786,29 @@
       <c r="B4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="G4" s="12">
         <v>134603.17000000001</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="13"/>
+        <v>16152.380400000002</v>
+      </c>
+      <c r="I4" s="13">
+        <f>INDEX(tb_dados_icms!$C$6:$AC$32,MATCH(D4,tb_dados_icms!$B$6:$B$32,0),MATCH(F4,tb_dados_icms!$C$5:$AC$5,0))</f>
+        <v>0.12</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
@@ -3788,22 +3817,31 @@
       <c r="B5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="34" t="s">
+        <v>103</v>
+      </c>
       <c r="G5" s="12">
         <v>1213</v>
       </c>
       <c r="H5" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="13"/>
+        <f>IFERROR(G5*I5,"0")</f>
+        <v>145.56</v>
+      </c>
+      <c r="I5" s="13">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D5,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F5,tb_dados_icms!$C$5:$AC$5,0)),"Faltou inserir umas Ufs")</f>
+        <v>0.12</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
@@ -3812,22 +3850,27 @@
       <c r="B6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="25" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="25" t="s">
         <v>74</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="12">
         <v>95676.72</v>
       </c>
-      <c r="H6" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="13"/>
+      <c r="H6" s="12" t="str">
+        <f>IFERROR(G6*I6,"")</f>
+        <v/>
+      </c>
+      <c r="I6" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D6,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F6,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
@@ -3836,22 +3879,27 @@
       <c r="B7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="25" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="15"/>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="25" t="s">
         <v>75</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="12">
         <v>26785.18</v>
       </c>
-      <c r="H7" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="13"/>
+      <c r="H7" s="12" t="str">
+        <f t="shared" ref="H7:H33" si="1">IFERROR(G7*I7,"")</f>
+        <v/>
+      </c>
+      <c r="I7" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D7,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F7,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
@@ -3860,22 +3908,27 @@
       <c r="B8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="15"/>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="12">
         <v>1231321</v>
       </c>
-      <c r="H8" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="13"/>
+      <c r="H8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I8" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D8,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F8,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
@@ -3884,22 +3937,27 @@
       <c r="B9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="25" t="s">
         <v>77</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="12">
         <v>34522.74</v>
       </c>
-      <c r="H9" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="13"/>
+      <c r="H9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I9" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D9,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F9,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
@@ -3908,22 +3966,27 @@
       <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="25" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="25" t="s">
         <v>78</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="12">
         <v>5300</v>
       </c>
-      <c r="H10" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="13"/>
+      <c r="H10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I10" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D10,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F10,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
@@ -3932,22 +3995,27 @@
       <c r="B11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="25" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="25" t="s">
         <v>79</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="12">
         <v>5300</v>
       </c>
-      <c r="H11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="13"/>
+      <c r="H11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I11" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D11,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F11,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
@@ -3956,22 +4024,27 @@
       <c r="B12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="25" t="s">
         <v>80</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="12">
         <v>175231.92</v>
       </c>
-      <c r="H12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="13"/>
+      <c r="H12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I12" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D12,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F12,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
@@ -3980,22 +4053,27 @@
       <c r="B13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="15"/>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="25" t="s">
         <v>81</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="12">
         <v>33560.94</v>
       </c>
-      <c r="H13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="13"/>
+      <c r="H13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I13" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D13,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F13,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
@@ -4004,22 +4082,27 @@
       <c r="B14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="25" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="15"/>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="12">
         <v>13132</v>
       </c>
-      <c r="H14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="13"/>
+      <c r="H14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I14" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D14,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F14,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
@@ -4028,22 +4111,27 @@
       <c r="B15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="15"/>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="25" t="s">
         <v>83</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="12">
         <v>4564</v>
       </c>
-      <c r="H15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="13"/>
+      <c r="H15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I15" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D15,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F15,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
@@ -4052,22 +4140,27 @@
       <c r="B16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="25" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="15"/>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="25" t="s">
         <v>84</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="12">
         <v>4895</v>
       </c>
-      <c r="H16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="13"/>
+      <c r="H16" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I16" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D16,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F16,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
@@ -4076,22 +4169,27 @@
       <c r="B17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="25" t="s">
         <v>54</v>
       </c>
       <c r="D17" s="15"/>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="25" t="s">
         <v>85</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="12">
         <v>4895</v>
       </c>
-      <c r="H17" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="13"/>
+      <c r="H17" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I17" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D17,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F17,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
@@ -4100,22 +4198,27 @@
       <c r="B18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="25" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="15"/>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="25" t="s">
         <v>86</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="12">
         <v>9932.2999999999993</v>
       </c>
-      <c r="H18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="13"/>
+      <c r="H18" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I18" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D18,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F18,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
@@ -4124,22 +4227,27 @@
       <c r="B19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="25" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="25" t="s">
         <v>87</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="12">
         <v>44546</v>
       </c>
-      <c r="H19" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="13"/>
+      <c r="H19" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I19" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D19,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F19,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
@@ -4148,22 +4256,27 @@
       <c r="B20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="25" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="15"/>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="25" t="s">
         <v>88</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="12">
         <v>77898</v>
       </c>
-      <c r="H20" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="13"/>
+      <c r="H20" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I20" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D20,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F20,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
@@ -4172,22 +4285,27 @@
       <c r="B21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="25" t="s">
         <v>58</v>
       </c>
       <c r="D21" s="15"/>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="25" t="s">
         <v>89</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="12">
         <v>4564</v>
       </c>
-      <c r="H21" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="13"/>
+      <c r="H21" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I21" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D21,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F21,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
@@ -4196,22 +4314,27 @@
       <c r="B22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="25" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="15"/>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="25" t="s">
         <v>90</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="12">
         <v>423372.72</v>
       </c>
-      <c r="H22" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="13"/>
+      <c r="H22" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I22" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D22,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F22,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
@@ -4220,22 +4343,27 @@
       <c r="B23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="15"/>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="25" t="s">
         <v>91</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="12">
         <v>25198.35</v>
       </c>
-      <c r="H23" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="13"/>
+      <c r="H23" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I23" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D23,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F23,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
@@ -4244,22 +4372,27 @@
       <c r="B24" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D24" s="15"/>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="25" t="s">
         <v>92</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="12">
         <v>43629.98</v>
       </c>
-      <c r="H24" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="13"/>
+      <c r="H24" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I24" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D24,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F24,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
@@ -4268,22 +4401,27 @@
       <c r="B25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D25" s="15"/>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="25" t="s">
         <v>93</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="12">
         <v>27342.92</v>
       </c>
-      <c r="H25" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="13"/>
+      <c r="H25" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I25" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D25,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F25,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
@@ -4292,22 +4430,27 @@
       <c r="B26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="25" t="s">
         <v>63</v>
       </c>
       <c r="D26" s="15"/>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="25" t="s">
         <v>94</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="12">
         <v>5900</v>
       </c>
-      <c r="H26" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="13"/>
+      <c r="H26" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I26" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D26,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F26,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
@@ -4316,22 +4459,27 @@
       <c r="B27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="25" t="s">
         <v>64</v>
       </c>
       <c r="D27" s="15"/>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="25" t="s">
         <v>95</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="12">
         <v>2000</v>
       </c>
-      <c r="H27" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="13"/>
+      <c r="H27" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I27" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D27,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F27,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
@@ -4340,22 +4488,27 @@
       <c r="B28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="25" t="s">
         <v>65</v>
       </c>
       <c r="D28" s="15"/>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="25" t="s">
         <v>96</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="12">
         <v>4880.0600000000004</v>
       </c>
-      <c r="H28" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="13"/>
+      <c r="H28" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I28" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D28,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F28,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
@@ -4364,22 +4517,27 @@
       <c r="B29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="25" t="s">
         <v>66</v>
       </c>
       <c r="D29" s="15"/>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="25" t="s">
         <v>97</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="12">
         <v>3898.96</v>
       </c>
-      <c r="H29" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="13"/>
+      <c r="H29" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I29" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D29,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F29,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
@@ -4388,22 +4546,27 @@
       <c r="B30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="15"/>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="25" t="s">
         <v>98</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="12">
         <v>123</v>
       </c>
-      <c r="H30" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="13"/>
+      <c r="H30" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I30" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D30,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F30,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
@@ -4412,22 +4575,27 @@
       <c r="B31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="25" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="15"/>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="12">
         <v>6164</v>
       </c>
-      <c r="H31" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="13"/>
+      <c r="H31" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I31" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D31,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F31,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
@@ -4436,22 +4604,27 @@
       <c r="B32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="25" t="s">
         <v>69</v>
       </c>
       <c r="D32" s="15"/>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="25" t="s">
         <v>100</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="12">
         <v>457919.61</v>
       </c>
-      <c r="H32" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="13"/>
+      <c r="H32" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I32" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D32,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F32,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
@@ -4460,22 +4633,27 @@
       <c r="B33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D33" s="15"/>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="25" t="s">
         <v>101</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="12">
         <v>1231</v>
       </c>
-      <c r="H33" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="13"/>
+      <c r="H33" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I33" s="13" t="str">
+        <f>IFERROR(INDEX(tb_dados_icms!$C$6:$AC$32,
+MATCH(D33,tb_dados_icms!$B$6:$B$32,0),
+MATCH(F33,tb_dados_icms!$C$5:$AC$5,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
@@ -4492,7 +4670,7 @@
       </c>
       <c r="H34" s="10">
         <f>SUM(H3:H33)</f>
-        <v>0</v>
+        <v>17976.874800000001</v>
       </c>
       <c r="I34" s="8"/>
     </row>
